--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>错误码</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>没有金币</t>
+  </si>
+  <si>
+    <t>IN_GAME</t>
+  </si>
+  <si>
+    <t>在一局游戏中，请等待结束</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -762,6 +774,28 @@
         <v>82</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
